--- a/context说明.xlsx
+++ b/context说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>属性/方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +41,14 @@
   </si>
   <si>
     <t>回测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signal_post_before_trading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在before_trading函数中定义，可以将内容发送到邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,16 +426,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -453,6 +462,14 @@
       </c>
       <c r="D2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
